--- a/translation/xlsx/_tsum_007.xlsx
+++ b/translation/xlsx/_tsum_007.xlsx
@@ -8497,7 +8497,7 @@
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="8.13"/>
     <col customWidth="1" min="3" max="3" width="4.88"/>
-    <col customWidth="1" min="4" max="4" width="41.63"/>
+    <col customWidth="1" min="4" max="4" width="125.38"/>
     <col customWidth="1" min="5" max="5" width="7.63"/>
     <col customWidth="1" min="6" max="6" width="3.88"/>
     <col customWidth="1" min="7" max="7" width="3.75"/>
